--- a/25th Feb Batch - Current/New Microsoft Excel Worksheet (3).xlsx
+++ b/25th Feb Batch - Current/New Microsoft Excel Worksheet (3).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch - Current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D6EEFC-8BBE-46F6-A22A-53730E9FB409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3F153-B36E-4BD9-BD46-111D6D5A1431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -83,13 +84,70 @@
   </si>
   <si>
     <t>The correlation value will be far from 1</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>january</t>
+  </si>
+  <si>
+    <t>february</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>july</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>october</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>december</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>fourth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +155,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +183,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,15 +204,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4EE554-1E0D-4C39-A7B1-BF8453B1E67D}">
   <dimension ref="B3:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -707,4 +821,248 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BB0233-C205-4666-AA40-E871A2D2AB8D}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>16646</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4">
+        <v>16646</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5">
+        <v>15508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>18380</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>18380</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5">
+        <v>18244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17103</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>17103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>15360</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15903</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>15508</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>18244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>18244</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5">
+        <v>17859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
+        <v>17859</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6">
+        <v>18606</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15207</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6">
+        <v>18781</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6">
+        <v>15066</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>